--- a/sinhala spam.xlsx
+++ b/sinhala spam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yanushka\Multilingual-Spam-Detector-master\Back_end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985EADF4-EA08-491B-910F-B0FB47B6E839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA56CD-3489-4C3C-ADF1-D4A9A9C48B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2192C8A7-9FA9-4126-87E6-4BB4C6E4FF1C}"/>
+    <workbookView xWindow="3885" yWindow="435" windowWidth="21600" windowHeight="11295" xr2:uid="{2192C8A7-9FA9-4126-87E6-4BB4C6E4FF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="724">
   <si>
     <t>Message</t>
   </si>
@@ -421,12 +421,1836 @@
   <si>
     <t>මැච් ගහලා ඉවරයි බම් මැච් එකත් ඉවරයිB133B134:B154B138:B154B139:B154B140:B154B141:B154B142:B154B143:B154</t>
   </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම ලියාපදිංචි වන්න දැන්ම ලියාපදිංචි වන්න අවස්ථාවකට පමණක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක් දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අවස්ථාවකට පමණක් දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න දැන්ම පිවිසෙන්න නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් අදම ක්‍රියාත්මක වන්න අවස්ථාවකට පමණක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න මෙම ඇප් එක බාගන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අවස්ථාවකට පමණක් දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න ඔබට පණිවුඩයක් ඇත දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම පිවිසෙන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න සජීවී කතාබස් දිනන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක් අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න සජීවී කතාබස් දිනන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න දැන්ම පිවිසෙන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අවස්ථාවකට පමණක් ඔබට විශේෂ තෑග්ගක් දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම ලියාපදිංචි වන්න ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් දැන්ම ලියාපදිංචි වන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න දැන්ම ලියාපදිංචි වන්න සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් මෙය අමතක නොකරන්න දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට විශේෂ තෑග්ගක් දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් දැන්ම ලියාපදිංචි වන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම ඇප් එක බාගන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක් ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න දැන්ම ලියාපදිංචි වන්න ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක් ඔබට විශේෂ තෑග්ගක් මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න අවස්ථාවකට පමණක් ඔබට විශේෂ තෑග්ගක් ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න නව ජංගම දුරකථනයක් දිනාගන්න අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න දැන්ම ලියාපදිංචි වන්න දැන්ම පිවිසෙන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම ලියාපදිංචි වන්න දැන්ම ලියාපදිංචි වන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට විශේෂ තෑග්ගක් දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම ඇප් එක බාගන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න දැන්ම ලියාපදිංචි වන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න අවස්ථාවකට පමණක් ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න සජීවී කතාබස් දිනන්න දිනන අවස්ථාවක් නැවත නොලැබේ අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දුරකථන අංකය භාවිතා කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න දුරකථන අංකය භාවිතා කරන්න අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න දැන්ම ලියාපදිංචි වන්න නව ජංගම දුරකථනයක් දිනාගන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක් අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න දුරකථන අංකය භාවිතා කරන්න සජීවී කතාබස් දිනන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අවස්ථාවකට පමණක් අදම ක්‍රියාත්මක වන්න අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න අදම ක්‍රියාත්මක වන්න මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබට ලක්ෂ 100ක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න සජීවී කතාබස් දිනන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න දැන්ම ලියාපදිංචි වන්න අදම ක්‍රියාත්මක වන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම ඇප් එක බාගන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබේ නම තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අදම ක්‍රියාත්මක වන්න මෙම ඇප් එක බාගන්න ඔබට විශේෂ තෑග්ගක් සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න ඔබට විශේෂ තෑග්ගක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත අවස්ථාවකට පමණක් ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලක්ෂ 100ක් දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න මෙය අමතක නොකරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අදම ක්‍රියාත්මක වන්න ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් දුරකථන අංකය භාවිතා කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ සජීවී කතාබස් දිනන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම ලියාපදිංචි වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අවස්ථාවකට පමණක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම ලියාපදිංචි වන්න ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් අදම ක්‍රියාත්මක වන්න මෙම ඇප් එක බාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න අවස්ථාවකට පමණක් ඔබට විශේෂ තෑග්ගක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක් දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක් දැන්ම ලියාපදිංචි වන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න දුරකථන අංකය භාවිතා කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක් දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ තොරතුරු යාවත්කාලීන කරන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක් මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක් අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම ලියාපදිංචි වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත නව ජංගම දුරකථනයක් දිනාගන්න මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න සජීවී කතාබස් දිනන්න දැන්ම ලියාපදිංචි වන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම ලියාපදිංචි වන්න ඔබට ලක්ෂ 100ක් දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න සජීවී කතාබස් දිනන්න දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අවස්ථාවකට පමණක් අවස්ථාවකට පමණක් අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම ලියාපදිංචි වන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට විශේෂ තෑග්ගක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න දැන්ම පිවිසෙන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න නව ජංගම දුරකථනයක් දිනාගන්න සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක් මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත දුරකථන අංකය භාවිතා කරන්න මෙම සබැඳිය ක්ලික් කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න අවස්ථාවකට පමණක් ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න අවස්ථාවකට පමණක් ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් දුරකථන අංකය භාවිතා කරන්න මෙම ඇප් එක බාගන්න නව ජංගම දුරකථනයක් දිනාගන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම ඇප් එක බාගන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අවස්ථාවකට පමණක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක් දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න අදම ක්‍රියාත්මක වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම ඇප් එක බාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න දැන්ම ලියාපදිංචි වන්න ඔබට විශේෂ තෑග්ගක් මෙම ඇප් එක බාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක් ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම ලියාපදිංචි වන්න ඔබට විශේෂ තෑග්ගක් ඔබට පණිවුඩයක් ඇත දුරකථන අංකය භාවිතා කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක් ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් දැන්ම පිවිසෙන්න ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක් මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න අවස්ථාවකට පමණක් අවස්ථාවකට පමණක් මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ මෙම සබැඳිය ක්ලික් කරන්න අවස්ථාවකට පමණක් අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම පිවිසෙන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අදම ක්‍රියාත්මක වන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න අදම ක්‍රියාත්මක වන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට විශේෂ තෑග්ගක් ඔබට විශේෂ තෑග්ගක් ඔබට විශේෂ තෑග්ගක් දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත ඔබේ නම තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න දුරකථන අංකය භාවිතා කරන්න අදම ක්‍රියාත්මක වන්න සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දුරකථන අංකය භාවිතා කරන්න නව ජංගම දුරකථනයක් දිනාගන්න නව ජංගම දුරකථනයක් දිනාගන්න අවස්ථාවකට පමණක් ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් සජීවී කතාබස් දිනන්න ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න දැන්ම ලියාපදිංචි වන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක් සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලක්ෂ 100ක් අදම ක්‍රියාත්මක වන්න දැන්ම පිවිසෙන්න ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න අවස්ථාවකට පමණක් ඔබට ලක්ෂ 100ක් අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න දැන්ම ලියාපදිංචි වන්න ඔබේ නම තෝරාගෙන ඇත දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලක්ෂ 100ක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න අදම ක්‍රියාත්මක වන්න අදම ක්‍රියාත්මක වන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න අදම ක්‍රියාත්මක වන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න මෙය අමතක නොකරන්න ඔබේ නම තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න මෙය අමතක නොකරන්න ඔබට විශේෂ තෑග්ගක් ඔබට විශේෂ තෑග්ගක් මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අදම ක්‍රියාත්මක වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත නව ජංගම දුරකථනයක් දිනාගන්න අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට විශේෂ තෑග්ගක් ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න ඔබට පණිවුඩයක් ඇත</t>
+  </si>
+  <si>
+    <t>නව ජංගම දුරකථනයක් දිනාගන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට විශේෂ තෑග්ගක් මෙම සබැඳිය ක්ලික් කරන්න මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක් ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දැන්ම පිවිසෙන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් මෙය අමතක නොකරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත දිනන අවස්ථාවක් නැවත නොලැබේ දැන්ම පිවිසෙන්න මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දුරකථන අංකය භාවිතා කරන්න අදම ක්‍රියාත්මක වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට පණිවුඩයක් ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>දිනන අවස්ථාවක් නැවත නොලැබේ ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් දිනන අවස්ථාවක් නැවත නොලැබේ අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න අවස්ථාවකට පමණක් ඔබට පණිවුඩයක් ඇත මෙම සබැඳිය ක්ලික් කරන්න මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක් අලුත්ම දීමනා දැන්ම ලබාගන්න දැන්ම පිවිසෙන්න දිනන අවස්ථාවක් නැවත නොලැබේ නව ජංගම දුරකථනයක් දිනාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ නම තෝරාගෙන ඇත සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් අවස්ථාවකට පමණක් අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබේ නම තෝරාගෙන ඇත ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත දැන්ම පිවිසෙන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් මෙම සබැඳිය ක්ලික් කරන්න මෙය අමතක නොකරන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම පිවිසෙන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම ඇප් එක බාගන්න මෙම ඇප් එක බාගන්න දැන්ම ලියාපදිංචි වන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න දැන්ම ලියාපදිංචි වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම ලියාපදිංචි වන්න ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>සජීවී කතාබස් දිනන්න ඔබට ලක්ෂ 100ක් දැන්ම ලියාපදිංචි වන්න ඔබේ නම තෝරාගෙන ඇත දැන්ම පිවිසෙන්න දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න සජීවී කතාබස් දිනන්න අවස්ථාවකට පමණක්</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් අලුත්ම දීමනා දැන්ම ලබාගන්න දුරකථන අංකය භාවිතා කරන්න දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න සජීවී කතාබස් දිනන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබේ නම තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් දැන්ම පිවිසෙන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න ඔබේ නම තෝරාගෙන ඇත මෙය අමතක නොකරන්න මෙම ඇප් එක බාගන්න ඔබට පණිවුඩයක් ඇත ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක් සජීවී කතාබස් දිනන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න සජීවී කතාබස් දිනන්න අදම ක්‍රියාත්මක වන්න මෙම සබැඳිය ක්ලික් කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබට ලක්ෂ 100ක් දැන්ම ලියාපදිංචි වන්න මෙම ඇප් එක බාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න සජීවී කතාබස් දිනන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න මෙම සබැඳිය ක්ලික් කරන්න සජීවී කතාබස් දිනන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම පිවිසෙන්න මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට විශේෂ තෑග්ගක් ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත සජීවී කතාබස් දිනන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත මෙම සබැඳිය ක්ලික් කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට පණිවුඩයක් ඇත අවස්ථාවකට පමණක් මෙම ඇප් එක බාගන්න ඔබේ නම තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අවස්ථාවකට පමණක් දැන්ම ලියාපදිංචි වන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත</t>
+  </si>
+  <si>
+    <t>ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ තොරතුරු යාවත්කාලීන කරන්න දැන්ම පිවිසෙන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>මෙම ඇප් එක බාගන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දැන්ම ලියාපදිංචි වන්න දැන්ම ලියාපදිංචි වන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට ලොතරැයි ජයග්‍රහණයක් ඇත නව ජංගම දුරකථනයක් දිනාගන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට පණිවුඩයක් ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>මෙම සබැඳිය ක්ලික් කරන්න ඔබට විශේෂ තෑග්ගක් අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න අවස්ථාවකට පමණක් දැන්ම පිවිසෙන්න මෙය අමතක නොකරන්න ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න ඔබේ නම තෝරාගෙන ඇත ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න මෙම සබැඳිය ක්ලික් කරන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක් අවස්ථාවකට පමණක් මෙය අමතක නොකරන්න අදම ක්‍රියාත්මක වන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබට පණිවුඩයක් ඇත දැන්ම පිවිසෙන්න ඔබට විශේෂ තෑග්ගක්</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න ඔබට ලක්ෂ 100ක් ඔබට පණිවුඩයක් ඇත මෙය අමතක නොකරන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අදම ක්‍රියාත්මක වන්න ඔබේ නම තෝරාගෙන ඇත ඔබට විශේෂ තෑග්ගක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙය අමතක නොකරන්න මෙය අමතක නොකරන්න දැන්ම ලියාපදිංචි වන්න දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>ඔබට ලක්ෂ 100ක් ඔබට විශේෂ තෑග්ගක් අලුත්ම දීමනා දැන්ම ලබාගන්න දුරකථන අංකය භාවිතා කරන්න සජීවී කතාබස් දිනන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>අදම ක්‍රියාත්මක වන්න නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න අවස්ථාවකට පමණක් නව ජංගම දුරකථනයක් දිනාගන්න දිනන අවස්ථාවක් නැවත නොලැබේ</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට විශේෂ තෑග්ගක් මෙය අමතක නොකරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න අදම ක්‍රියාත්මක වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබට පණිවුඩයක් ඇත ඔබට ලක්ෂ 100ක්</t>
+  </si>
+  <si>
+    <t>අලුත්ම දීමනා දැන්ම ලබාගන්න අවස්ථාවකට පමණක් සජීවී කතාබස් දිනන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න දුරකථන අංකය භාවිතා කරන්න ඔබට ලක්ෂ 100ක් ඔබට ලක්ෂ 100ක් දුරකථන අංකය භාවිතා කරන්න</t>
+  </si>
+  <si>
+    <t>දැන්ම ලියාපදිංචි වන්න ඔබට ලක්ෂ 100ක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න මෙම සබැඳිය ක්ලික් කරන්න දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න සජීවී කතාබස් දිනන්න අවස්ථාවකට පමණක් ඔබගේ තොරතුරු යාවත්කාලීන කරන්න ඔබේ නම තෝරාගෙන ඇත දුරකථන අංකය භාවිතා කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න</t>
+  </si>
+  <si>
+    <t>ඔබගේ තොරතුරු යාවත්කාලීන කරන්න අලුත්ම දීමනා දැන්ම ලබාගන්න ඔබට පණිවුඩයක් ඇත අදම ක්‍රියාත්මක වන්න ඔබගේ තොරතුරු යාවත්කාලීන කරන්න</t>
+  </si>
+  <si>
+    <t>මෙය අමතක නොකරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත අවස්ථාවකට පමණක් අවස්ථාවකට පමණක් ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත</t>
+  </si>
+  <si>
+    <t>දැන්ම පිවිසෙන්න දිනන අවස්ථාවක් නැවත නොලැබේ ඔබට ලක්ෂ 100ක් නව ජංගම දුරකථනයක් දිනාගන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න</t>
+  </si>
+  <si>
+    <t>දුරකථන අංකය භාවිතා කරන්න ඔබට පණිවුඩයක් ඇත ඔබට පණිවුඩයක් ඇත දැන්ම ලියාපදිංචි වන්න ඔබගේ බැංකු ගිණුම සත්‍යාපනය කරන්න ඔබ ඉතා වාසියෙන් තෝරාගෙන ඇත මෙම ඇප් එක බාගන්න</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා තාත්තා රටින් ආවා අද ඉතා සුන්දර දවසක් කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>පන්ති අවසන් උනා ඔබගේ විභාගය හොඳින් සමත් වන්න අපි සෙරිනට යමුද</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද මම පාසලට යනවා ඔබේ උපන්දිනයට සුබ පතමු</t>
+  </si>
+  <si>
+    <t>අද කඳවුරට යමු අම්මා ආපහු ආවා මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>තාත්තා රටින් ආවා අද හවස කෝපි එකක් බොමු අපි සෙරිනට යමුද</t>
+  </si>
+  <si>
+    <t>ඔබට සුබ දවසක් වේවා කාලෙකින් හමුවුණා අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි අද ඉගෙනුම් වැඩබලන්න</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද මම නිවසේ ඉන්නවා අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>මම පාසලට යනවා කාලෙකින් හමුවුණා ඔබගේ විභාගය හොඳින් සමත් වන්න</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා ඔබේ උපන්දිනයට සුබ පතමු</t>
+  </si>
+  <si>
+    <t>දැන්ම එන්න අපි එකට යමු පන්ති අවසන් උනා</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා අද උදේ කෑම කෑවාද</t>
+  </si>
+  <si>
+    <t>අද ඉතා සුන්දර දවසක් අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>තාත්තා රටින් ආවා අද ඉගෙනුම් වැඩබලන්න</t>
+  </si>
+  <si>
+    <t>ඔබට සුබ දවසක් වේවා මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද අද කඳවුරට යමු</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද අද හවස කෝපි එකක් බොමු</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි පන්ති අවසන් උනා</t>
+  </si>
+  <si>
+    <t>මම පාසලට යනවා තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>ඔබගේ විභාගය හොඳින් සමත් වන්න මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න අපි සෙරිනට යමුද</t>
+  </si>
+  <si>
+    <t>අද කඳවුරට යමු අද හවස කෝපි එකක් බොමු</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද ඔබට සුබ දවසක් වේවා</t>
+  </si>
+  <si>
+    <t>කාලෙකින් හමුවුණා අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>තාත්තා රටින් ආවා පන්ති අවසන් උනා</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න ඔබේ උපන්දිනයට සුබ පතමු</t>
+  </si>
+  <si>
+    <t>මම නිවසේ ඉන්නවා ඊයේ චිත්‍රපටය ගොඩක් හොඳයි</t>
+  </si>
+  <si>
+    <t>අද හවස කෝපි එකක් බොමු මම පාසලට යනවා</t>
+  </si>
+  <si>
+    <t>කාලෙකින් හමුවුණා දැන්ම එන්න අපි එකට යමු</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>ඔබට සුබ දවසක් වේවා අපි සෙරිනට යමුද</t>
+  </si>
+  <si>
+    <t>පන්ති අවසන් උනා අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>අද කඳවුරට යමු අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>මම නිවසේ ඉන්නවා තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>ඔබගේ විභාගය හොඳින් සමත් වන්න අද උදේ කෑම කෑවාද</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා පන්ති අවසන් උනා</t>
+  </si>
+  <si>
+    <t>අද ඉතා සුන්දර දවසක් මම පාසලට යනවා</t>
+  </si>
+  <si>
+    <t>කාලෙකින් හමුවුණා ඔබට සුබ දවසක් වේවා</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු පන්ති අවසන් උනා</t>
+  </si>
+  <si>
+    <t>කාලෙකින් හමුවුණා මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා අපි සෙරිනට යමුද ඔබට සුබ දවසක් වේවා කාලෙකින් හමුවුණා අද කඳවුරට යමු</t>
+  </si>
+  <si>
+    <t>මම පාසලට යනවා ඊයේ චිත්‍රපටය ගොඩක් හොඳයි දැන්ම එන්න අපි එකට යමු අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>ඔබට සුබ දවසක් වේවා අම්මා ආපහු ආවා කැෆේ එකට යන්න හොඳයි අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා අද හවස කෝපි එකක් බොමු මට නව පොතක් කියවන්න තියෙනවා අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>අද හවස කෝපි එකක් බොමු ඔබගේ විභාගය හොඳින් සමත් වන්න කැෆේ එකට යන්න හොඳයි</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි කාලෙකින් හමුවුණා අද ඉගෙනුම් වැඩබලන්න</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න අද ඉතා සුන්දර දවසක් පන්ති අවසන් උනා අද කඳවුරට යමු</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි කාලෙකින් හමුවුණා අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>තාත්තා රටින් ආවා අම්මා ආපහු ආවා මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>මම නිවසේ ඉන්නවා අද ඉගෙනුම් වැඩබලන්න</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද තාත්තා රටින් ආවා මට නව පොතක් කියවන්න තියෙනවා කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා අපි සෙරිනට යමුද පන්ති අවසන් උනා අද හවස කෝපි එකක් බොමු</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු මම නිවසේ ඉන්නවා අද ඉතා සුන්දර දවසක්</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න අද උදේ කෑම කෑවාද තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද මට නව පොතක් කියවන්න තියෙනවා අද කඳවුරට යමු</t>
+  </si>
+  <si>
+    <t>අද හවස කෝපි එකක් බොමු ඔබගේ විභාගය හොඳින් සමත් වන්න කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා ඔබට සුබ දවසක් වේවා මම පාසලට යනවා</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද තාත්තා රටින් ආවා මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>අද ඉතා සුන්දර දවසක් පන්ති අවසන් උනා අද ඉගෙනුම් වැඩබලන්න</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු කාලෙකින් හමුවුණා අපි සෙරිනට යමුද</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>අද කඳවුරට යමු අම්මා ආපහු ආවා අද උදේ කෑම කෑවාද</t>
+  </si>
+  <si>
+    <t>මම නිවසේ ඉන්නවා ඔබට සුබ දවසක් වේවා</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද ඔබේ උපන්දිනයට සුබ පතමු</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>අද කඳවුරට යමු පන්ති අවසන් උනා</t>
+  </si>
+  <si>
+    <t>අද හවස කෝපි එකක් බොමු මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද ඔබගේ විභාගය හොඳින් සමත් වන්න</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු අද කඳවුරට යමු</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>පන්ති අවසන් උනා ඊයේ චිත්‍රපටය ගොඩක් හොඳයි</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද මම පාසලට යනවා</t>
+  </si>
+  <si>
+    <t>අද ඉතා සුන්දර දවසක් කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා අද හවස කෝපි එකක් බොමු</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද ඔබට සුබ දවසක් වේවා</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු අද උදේ කෑම කෑවාද</t>
+  </si>
+  <si>
+    <t>අද ඉතා සුන්දර දවසක් මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න මම පාසලට යනවා</t>
+  </si>
+  <si>
+    <t>කාලෙකින් හමුවුණා ඊයේ චිත්‍රපටය ගොඩක් හොඳයි</t>
+  </si>
+  <si>
+    <t>ඔබගේ විභාගය හොඳින් සමත් වන්න අපි සෙරිනට යමුද</t>
+  </si>
+  <si>
+    <t>තාත්තා රටින් ආවා මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද ඔබේ උපන්දිනයට සුබ පතමු</t>
+  </si>
+  <si>
+    <t>මම නිවසේ ඉන්නවා කාලෙකින් හමුවුණා</t>
+  </si>
+  <si>
+    <t>අද හවස කෝපි එකක් බොමු ඔබට සුබ දවසක් වේවා</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>අද කඳවුරට යමු මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>අද ඉගෙනුම් වැඩබලන්න ඔබගේ විභාගය හොඳින් සමත් වන්න</t>
+  </si>
+  <si>
+    <t>අම්මා ආපහු ආවා අද උදේ කෑම කෑවාද</t>
+  </si>
+  <si>
+    <t>ඊයේ චිත්‍රපටය ගොඩක් හොඳයි තාත්තා රටින් ආවා</t>
+  </si>
+  <si>
+    <t>මට නව පොතක් කියවන්න තියෙනවා අද කඳවුරට යමු</t>
+  </si>
+  <si>
+    <t>අද උදේ කෑම කෑවාද මම නිවසේ ඉන්නවා</t>
+  </si>
+  <si>
+    <t>ඔබේ උපන්දිනයට සුබ පතමු අම්මා ආපහු ආවා</t>
+  </si>
+  <si>
+    <t>අද හවස කෝපි එකක් බොමු ඔබගේ විභාගය හොඳින් සමත් වන්න</t>
+  </si>
+  <si>
+    <t>අපි සෙරිනට යමුද මම පාසලට යනවා</t>
+  </si>
+  <si>
+    <t>තාත්තා රටින් ආවා අද උදේ කෑම කෑවාද</t>
+  </si>
+  <si>
+    <t>අද ඉතා සුන්දර දවසක් මට නව පොතක් කියවන්න තියෙනවා</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +2265,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Iskoola Pota"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -463,11 +2293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B73ED87-D875-4F47-AC8A-8A535B54A2B5}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A732" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A613" sqref="A613:XFD616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -1696,6 +3527,5030 @@
       </c>
       <c r="B114" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1</v>
+      </c>
+      <c r="B286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1</v>
+      </c>
+      <c r="B287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1</v>
+      </c>
+      <c r="B292" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1</v>
+      </c>
+      <c r="B301" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1</v>
+      </c>
+      <c r="B302" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1</v>
+      </c>
+      <c r="B304" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1</v>
+      </c>
+      <c r="B308" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1</v>
+      </c>
+      <c r="B309" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1</v>
+      </c>
+      <c r="B311" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1</v>
+      </c>
+      <c r="B313" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1</v>
+      </c>
+      <c r="B316" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1</v>
+      </c>
+      <c r="B332" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1</v>
+      </c>
+      <c r="B336" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1</v>
+      </c>
+      <c r="B339" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1</v>
+      </c>
+      <c r="B341" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1</v>
+      </c>
+      <c r="B344" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1</v>
+      </c>
+      <c r="B346" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1</v>
+      </c>
+      <c r="B348" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1</v>
+      </c>
+      <c r="B349" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1</v>
+      </c>
+      <c r="B352" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1</v>
+      </c>
+      <c r="B353" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1</v>
+      </c>
+      <c r="B355" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1</v>
+      </c>
+      <c r="B356" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1</v>
+      </c>
+      <c r="B358" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1</v>
+      </c>
+      <c r="B361" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1</v>
+      </c>
+      <c r="B367" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1</v>
+      </c>
+      <c r="B369" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1</v>
+      </c>
+      <c r="B370" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1</v>
+      </c>
+      <c r="B371" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1</v>
+      </c>
+      <c r="B373" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1</v>
+      </c>
+      <c r="B374" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1</v>
+      </c>
+      <c r="B375" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1</v>
+      </c>
+      <c r="B376" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1</v>
+      </c>
+      <c r="B377" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1</v>
+      </c>
+      <c r="B379" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1</v>
+      </c>
+      <c r="B384" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1</v>
+      </c>
+      <c r="B385" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1</v>
+      </c>
+      <c r="B386" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1</v>
+      </c>
+      <c r="B388" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1</v>
+      </c>
+      <c r="B389" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1</v>
+      </c>
+      <c r="B390" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1</v>
+      </c>
+      <c r="B391" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1</v>
+      </c>
+      <c r="B393" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1</v>
+      </c>
+      <c r="B394" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1</v>
+      </c>
+      <c r="B395" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1</v>
+      </c>
+      <c r="B396" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1</v>
+      </c>
+      <c r="B397" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1</v>
+      </c>
+      <c r="B399" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1</v>
+      </c>
+      <c r="B400" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1</v>
+      </c>
+      <c r="B401" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1</v>
+      </c>
+      <c r="B402" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1</v>
+      </c>
+      <c r="B403" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1</v>
+      </c>
+      <c r="B404" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1</v>
+      </c>
+      <c r="B406" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1</v>
+      </c>
+      <c r="B407" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1</v>
+      </c>
+      <c r="B408" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1</v>
+      </c>
+      <c r="B409" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1</v>
+      </c>
+      <c r="B410" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1</v>
+      </c>
+      <c r="B411" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1</v>
+      </c>
+      <c r="B412" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1</v>
+      </c>
+      <c r="B413" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1</v>
+      </c>
+      <c r="B414" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1</v>
+      </c>
+      <c r="B415" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1</v>
+      </c>
+      <c r="B416" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1</v>
+      </c>
+      <c r="B417" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1</v>
+      </c>
+      <c r="B418" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1</v>
+      </c>
+      <c r="B419" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1</v>
+      </c>
+      <c r="B420" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1</v>
+      </c>
+      <c r="B421" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1</v>
+      </c>
+      <c r="B422" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1</v>
+      </c>
+      <c r="B423" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1</v>
+      </c>
+      <c r="B424" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1</v>
+      </c>
+      <c r="B425" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1</v>
+      </c>
+      <c r="B426" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1</v>
+      </c>
+      <c r="B427" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1</v>
+      </c>
+      <c r="B428" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1</v>
+      </c>
+      <c r="B429" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1</v>
+      </c>
+      <c r="B430" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1</v>
+      </c>
+      <c r="B431" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1</v>
+      </c>
+      <c r="B432" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1</v>
+      </c>
+      <c r="B433" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1</v>
+      </c>
+      <c r="B434" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1</v>
+      </c>
+      <c r="B435" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1</v>
+      </c>
+      <c r="B436" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1</v>
+      </c>
+      <c r="B437" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1</v>
+      </c>
+      <c r="B438" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1</v>
+      </c>
+      <c r="B439" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1</v>
+      </c>
+      <c r="B440" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1</v>
+      </c>
+      <c r="B441" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1</v>
+      </c>
+      <c r="B442" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1</v>
+      </c>
+      <c r="B443" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1</v>
+      </c>
+      <c r="B444" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1</v>
+      </c>
+      <c r="B445" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1</v>
+      </c>
+      <c r="B446" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1</v>
+      </c>
+      <c r="B447" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1</v>
+      </c>
+      <c r="B448" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1</v>
+      </c>
+      <c r="B449" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1</v>
+      </c>
+      <c r="B450" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1</v>
+      </c>
+      <c r="B451" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1</v>
+      </c>
+      <c r="B452" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1</v>
+      </c>
+      <c r="B453" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1</v>
+      </c>
+      <c r="B454" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1</v>
+      </c>
+      <c r="B455" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1</v>
+      </c>
+      <c r="B456" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1</v>
+      </c>
+      <c r="B457" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1</v>
+      </c>
+      <c r="B458" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1</v>
+      </c>
+      <c r="B459" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1</v>
+      </c>
+      <c r="B460" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1</v>
+      </c>
+      <c r="B461" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1</v>
+      </c>
+      <c r="B462" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1</v>
+      </c>
+      <c r="B463" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1</v>
+      </c>
+      <c r="B464" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1</v>
+      </c>
+      <c r="B465" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1</v>
+      </c>
+      <c r="B466" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1</v>
+      </c>
+      <c r="B467" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1</v>
+      </c>
+      <c r="B468" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1</v>
+      </c>
+      <c r="B469" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1</v>
+      </c>
+      <c r="B470" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1</v>
+      </c>
+      <c r="B471" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1</v>
+      </c>
+      <c r="B472" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1</v>
+      </c>
+      <c r="B473" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1</v>
+      </c>
+      <c r="B474" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1</v>
+      </c>
+      <c r="B475" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1</v>
+      </c>
+      <c r="B476" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1</v>
+      </c>
+      <c r="B477" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1</v>
+      </c>
+      <c r="B478" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1</v>
+      </c>
+      <c r="B479" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1</v>
+      </c>
+      <c r="B480" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1</v>
+      </c>
+      <c r="B481" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1</v>
+      </c>
+      <c r="B482" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1</v>
+      </c>
+      <c r="B483" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1</v>
+      </c>
+      <c r="B484" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1</v>
+      </c>
+      <c r="B485" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1</v>
+      </c>
+      <c r="B486" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1</v>
+      </c>
+      <c r="B487" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1</v>
+      </c>
+      <c r="B488" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1</v>
+      </c>
+      <c r="B489" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1</v>
+      </c>
+      <c r="B490" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1</v>
+      </c>
+      <c r="B491" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1</v>
+      </c>
+      <c r="B492" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1</v>
+      </c>
+      <c r="B493" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1</v>
+      </c>
+      <c r="B494" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1</v>
+      </c>
+      <c r="B495" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1</v>
+      </c>
+      <c r="B496" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1</v>
+      </c>
+      <c r="B497" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1</v>
+      </c>
+      <c r="B498" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1</v>
+      </c>
+      <c r="B499" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1</v>
+      </c>
+      <c r="B500" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1</v>
+      </c>
+      <c r="B501" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1</v>
+      </c>
+      <c r="B502" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1</v>
+      </c>
+      <c r="B503" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1</v>
+      </c>
+      <c r="B504" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1</v>
+      </c>
+      <c r="B505" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1</v>
+      </c>
+      <c r="B506" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1</v>
+      </c>
+      <c r="B507" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1</v>
+      </c>
+      <c r="B508" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1</v>
+      </c>
+      <c r="B510" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1</v>
+      </c>
+      <c r="B511" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1</v>
+      </c>
+      <c r="B512" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1</v>
+      </c>
+      <c r="B513" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1</v>
+      </c>
+      <c r="B514" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1</v>
+      </c>
+      <c r="B515" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1</v>
+      </c>
+      <c r="B516" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1</v>
+      </c>
+      <c r="B517" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1</v>
+      </c>
+      <c r="B518" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1</v>
+      </c>
+      <c r="B519" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1</v>
+      </c>
+      <c r="B520" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1</v>
+      </c>
+      <c r="B521" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1</v>
+      </c>
+      <c r="B522" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1</v>
+      </c>
+      <c r="B523" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1</v>
+      </c>
+      <c r="B524" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1</v>
+      </c>
+      <c r="B525" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1</v>
+      </c>
+      <c r="B526" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1</v>
+      </c>
+      <c r="B527" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1</v>
+      </c>
+      <c r="B528" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1</v>
+      </c>
+      <c r="B529" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1</v>
+      </c>
+      <c r="B530" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1</v>
+      </c>
+      <c r="B531" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1</v>
+      </c>
+      <c r="B532" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1</v>
+      </c>
+      <c r="B533" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1</v>
+      </c>
+      <c r="B534" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1</v>
+      </c>
+      <c r="B535" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1</v>
+      </c>
+      <c r="B536" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1</v>
+      </c>
+      <c r="B537" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1</v>
+      </c>
+      <c r="B538" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1</v>
+      </c>
+      <c r="B539" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1</v>
+      </c>
+      <c r="B540" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1</v>
+      </c>
+      <c r="B541" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1</v>
+      </c>
+      <c r="B542" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1</v>
+      </c>
+      <c r="B543" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1</v>
+      </c>
+      <c r="B544" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1</v>
+      </c>
+      <c r="B545" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1</v>
+      </c>
+      <c r="B546" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1</v>
+      </c>
+      <c r="B547" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1</v>
+      </c>
+      <c r="B548" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1</v>
+      </c>
+      <c r="B549" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1</v>
+      </c>
+      <c r="B550" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1</v>
+      </c>
+      <c r="B551" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1</v>
+      </c>
+      <c r="B552" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1</v>
+      </c>
+      <c r="B553" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1</v>
+      </c>
+      <c r="B554" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1</v>
+      </c>
+      <c r="B555" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1</v>
+      </c>
+      <c r="B556" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1</v>
+      </c>
+      <c r="B557" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1</v>
+      </c>
+      <c r="B558" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1</v>
+      </c>
+      <c r="B559" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1</v>
+      </c>
+      <c r="B560" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1</v>
+      </c>
+      <c r="B561" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1</v>
+      </c>
+      <c r="B562" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1</v>
+      </c>
+      <c r="B563" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1</v>
+      </c>
+      <c r="B564" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1</v>
+      </c>
+      <c r="B565" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1</v>
+      </c>
+      <c r="B566" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1</v>
+      </c>
+      <c r="B567" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B568" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1</v>
+      </c>
+      <c r="B569" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B570" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1</v>
+      </c>
+      <c r="B571" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B572" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1</v>
+      </c>
+      <c r="B573" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B574" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1</v>
+      </c>
+      <c r="B575" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1</v>
+      </c>
+      <c r="B576" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1</v>
+      </c>
+      <c r="B577" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B578" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1</v>
+      </c>
+      <c r="B579" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1</v>
+      </c>
+      <c r="B580" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1</v>
+      </c>
+      <c r="B581" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1</v>
+      </c>
+      <c r="B582" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1</v>
+      </c>
+      <c r="B583" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1</v>
+      </c>
+      <c r="B584" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1</v>
+      </c>
+      <c r="B585" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1</v>
+      </c>
+      <c r="B586" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1</v>
+      </c>
+      <c r="B587" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1</v>
+      </c>
+      <c r="B588" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1</v>
+      </c>
+      <c r="B589" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1</v>
+      </c>
+      <c r="B590" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1</v>
+      </c>
+      <c r="B591" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1</v>
+      </c>
+      <c r="B592" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1</v>
+      </c>
+      <c r="B593" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1</v>
+      </c>
+      <c r="B594" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1</v>
+      </c>
+      <c r="B596" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1</v>
+      </c>
+      <c r="B597" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1</v>
+      </c>
+      <c r="B598" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1</v>
+      </c>
+      <c r="B599" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1</v>
+      </c>
+      <c r="B600" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1</v>
+      </c>
+      <c r="B601" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1</v>
+      </c>
+      <c r="B602" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1</v>
+      </c>
+      <c r="B603" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1</v>
+      </c>
+      <c r="B604" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1</v>
+      </c>
+      <c r="B605" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1</v>
+      </c>
+      <c r="B606" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1</v>
+      </c>
+      <c r="B607" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1</v>
+      </c>
+      <c r="B608" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1</v>
+      </c>
+      <c r="B609" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1</v>
+      </c>
+      <c r="B610" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1</v>
+      </c>
+      <c r="B611" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1</v>
+      </c>
+      <c r="B612" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1</v>
+      </c>
+      <c r="B613" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1</v>
+      </c>
+      <c r="B614" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>723</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>723</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>723</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>723</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>723</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>723</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>723</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>723</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>723</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>723</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>723</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>723</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>723</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>723</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>723</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>723</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>723</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>723</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>723</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>723</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>723</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>723</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>723</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>723</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>723</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>723</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>723</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>723</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>723</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>723</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>723</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>723</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>723</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>723</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>723</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>723</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>723</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>723</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>723</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>723</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>723</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>723</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>723</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>723</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>723</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>723</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>723</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>723</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>723</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>723</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>723</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>723</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>723</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>723</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>723</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>723</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>723</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>723</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>723</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>723</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>723</v>
+      </c>
+      <c r="B675" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>723</v>
+      </c>
+      <c r="B676" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>723</v>
+      </c>
+      <c r="B677" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>723</v>
+      </c>
+      <c r="B678" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>723</v>
+      </c>
+      <c r="B679" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>723</v>
+      </c>
+      <c r="B680" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>723</v>
+      </c>
+      <c r="B681" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>723</v>
+      </c>
+      <c r="B682" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>723</v>
+      </c>
+      <c r="B683" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>723</v>
+      </c>
+      <c r="B684" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>723</v>
+      </c>
+      <c r="B685" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>723</v>
+      </c>
+      <c r="B686" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>723</v>
+      </c>
+      <c r="B687" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>723</v>
+      </c>
+      <c r="B688" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>723</v>
+      </c>
+      <c r="B689" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>723</v>
+      </c>
+      <c r="B690" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>723</v>
+      </c>
+      <c r="B691" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>723</v>
+      </c>
+      <c r="B692" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>723</v>
+      </c>
+      <c r="B693" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>723</v>
+      </c>
+      <c r="B694" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>723</v>
+      </c>
+      <c r="B695" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>723</v>
+      </c>
+      <c r="B696" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>723</v>
+      </c>
+      <c r="B697" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>723</v>
+      </c>
+      <c r="B698" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>723</v>
+      </c>
+      <c r="B699" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>723</v>
+      </c>
+      <c r="B700" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>723</v>
+      </c>
+      <c r="B701" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>723</v>
+      </c>
+      <c r="B702" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>723</v>
+      </c>
+      <c r="B703" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>723</v>
+      </c>
+      <c r="B704" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>723</v>
+      </c>
+      <c r="B705" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>723</v>
+      </c>
+      <c r="B706" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>723</v>
+      </c>
+      <c r="B707" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>723</v>
+      </c>
+      <c r="B708" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>723</v>
+      </c>
+      <c r="B709" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>723</v>
+      </c>
+      <c r="B710" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>723</v>
+      </c>
+      <c r="B711" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>723</v>
+      </c>
+      <c r="B712" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>723</v>
+      </c>
+      <c r="B713" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>723</v>
+      </c>
+      <c r="B714" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>723</v>
+      </c>
+      <c r="B715" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>723</v>
+      </c>
+      <c r="B716" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>723</v>
+      </c>
+      <c r="B717" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>723</v>
+      </c>
+      <c r="B718" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>723</v>
+      </c>
+      <c r="B719" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>723</v>
+      </c>
+      <c r="B720" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>723</v>
+      </c>
+      <c r="B721" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>723</v>
+      </c>
+      <c r="B722" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>723</v>
+      </c>
+      <c r="B723" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+      <c r="B724" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>723</v>
+      </c>
+      <c r="B725" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>723</v>
+      </c>
+      <c r="B726" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>723</v>
+      </c>
+      <c r="B727" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>723</v>
+      </c>
+      <c r="B728" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>723</v>
+      </c>
+      <c r="B729" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>723</v>
+      </c>
+      <c r="B730" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>723</v>
+      </c>
+      <c r="B731" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>723</v>
+      </c>
+      <c r="B732" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>723</v>
+      </c>
+      <c r="B733" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>723</v>
+      </c>
+      <c r="B734" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>723</v>
+      </c>
+      <c r="B735" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>723</v>
+      </c>
+      <c r="B736" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>723</v>
+      </c>
+      <c r="B737" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>723</v>
+      </c>
+      <c r="B738" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>723</v>
+      </c>
+      <c r="B739" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>723</v>
+      </c>
+      <c r="B740" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>723</v>
+      </c>
+      <c r="B741" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>723</v>
+      </c>
+      <c r="B742" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
